--- a/archivos/Inventario_Productos_final.xlsx
+++ b/archivos/Inventario_Productos_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mipuntodeventa.facturador\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\tienda\mipuntodeventafacturador\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D43CC5-8A7E-4B51-9053-71EEDDD4C98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850C4B98-EB9C-4153-9459-7EABA11ADD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -1016,7 +1016,7 @@
     <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -4771,11 +4771,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -10153,7 +10153,7 @@
       <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
@@ -10275,7 +10275,7 @@
       <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -10392,7 +10392,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -10479,11 +10479,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279B055A-494E-4D7E-A16E-494EE892A338}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
